--- a/PreludeSys_Workflow.xlsx
+++ b/PreludeSys_Workflow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -44,6 +44,759 @@
   </x:si>
   <x:si>
     <x:t>ReasonToReject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Convert Lead to Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Lead tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Lead Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of the  Leads displayed, select the appropriate Lead.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Lead details page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Convert button to convert Lead to Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Convert Lead successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Lead Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Lead Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Lead Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Record Owner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Record Owner field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Record Owner field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Send Email to the Owner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Send Email to the Owner field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Send Email to the Owner field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Account Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Opportunity Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Opportunity Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Opportunity Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Do not create a new opportunity upon conversion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Do not create a new opportunity upon conversion field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Do not create a new opportunity upon conversion field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Converted Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Converted Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Converted Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Subject field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Subject field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Due Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Due Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Due Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Comments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Comments field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Comments field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Set Reminder On/Off</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Set Reminder On/Off field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Set Reminder On/Off field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Reminder Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Reminder Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Reminder Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Reminder Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Reminder Time field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Reminder Time field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Accounts successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of the  Accounts displayed, select the appropriate Account.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Account details page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Convert button to convert Account to Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Contact tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Contact Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of the  Contacts displayed, select the appropriate Contact.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Contact details page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Convert button to convert Contact to Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Opportunity tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Opportunity Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of the  Opportunitys displayed, select the appropriate Opportunity.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Opportunity details page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Convert button to convert Opportunity to Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Product2 tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Product2 Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of the  Product2s displayed, select the appropriate Product2.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Product2 details page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Convert button to convert Product2 to Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_6.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the LIMS_Material__c tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the LIMS_Material__c Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of the  LIMS_Material__cs displayed, select the appropriate LIMS_Material__c.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the LIMS_Material__c details page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Convert button to convert LIMS_Material__c to Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_7.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reassign Approve/Reject Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scroll down the Opportunity page to locate the 'Approval History' section.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the pending Approve/Reject requests listed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To Reassign the record's request, Click on the 'Reassign' link.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the 'Reassign Approval Request' Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In the 'Reassign Approval Request' section input the appropriate Approver in the 'Approver' field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input the appropriate Approver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In the 'Reassign Approval Request' section, input Comments if required.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input appropriate comments.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on 'Reassign Approval Request' button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the changes are saved and they are navigated to the Opportunity details Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the name in the 'Assigned To' field matches the name that was updated in 'Step 5'.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_8.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approve/Reject Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To Approve/Reject the record's request, Click on 'Approve/Reject' link.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Approval Request, Account:(Approver Name) Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In the 'Approve/Reject Approval Request' section, input comments if required.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the 'Approve' or the 'Reject' button to either Approve or Reject the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to either 'Approve' or 'Reject' the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On performing either 'Approval' or 'Rejection' action, user is navigated to the Opportunity request page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the request is either 'Approved' or 'Rejected'.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_9.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approve/Reject through e-mail link Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The e-mail should contain a link to Approve/Reject the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Validate if the user has received an e-mail notification for Approve/Reject.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should have received an e-mail to Approve/Reject the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To access this page, you have to log in to Salesforce.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the link provided in the e-mail.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Approval Request Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Under the 'Approve/Reject Approval Request' section, input comments if necessary.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input the comments.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_10.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approve/Reject through e-mail Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The approver should receive an e-mail to Approve/Reject the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on 'Reply All' option to respond to the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to reply all through the e-mail chain.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To Approve/Reject the request reply e-mail with one of these words: APPROVE, APPROVED, YES, REJECT, REJECTED, NO.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to reply the email message: APPROVE, APPROVED, YES,REJECT, REJECTED, NO.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Navigate to the  Opportunity page on Salesforce.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_11.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verify Automatically Assign Users/Queues Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Navigate to the Leads Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Lead Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of recent Leads displayed, select the appropriate Lead.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Validate if the .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On the Lead Details page, validate the Lead Owner.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Lead Owner is Queue:Marketing_Lead .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_12.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead-10 pt score on Title Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_13.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead-15 pt score on Title Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_14.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead-10 pt score on Title Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_15.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead-15 pt score on Title Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_16.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Account-TIS Child Account Site Format Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_17.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Account-TIS Country Code - Billing Address Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_18.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead-10 pt score on Title Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_19.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead-15 pt score on Title Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_20.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Account-TIS Child Account Site Format Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_21.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Account-TIS Country Code - Billing Address Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_22.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contact-Archive Reason%2C Email Opt out Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_23.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contact-Set Inbound Request to be Contacted Date Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_24.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead-10 pt score on Title Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_25.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead-15 pt score on Title Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_26.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Account-TIS Child Account Site Format Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_27.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Account-TIS Country Code - Billing Address Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_28.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contact-Archive Reason%2C Email Opt out Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_29.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contact-Set Inbound Request to be Contacted Date Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_30.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Opportunity-COI ReadOnly at 30 Days Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_31.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Opportunity-TIS Bell Semiconductor %28C00691%29 - Engaged Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_32.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead-10 pt score on Title Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_33.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead-15 pt score on Title Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_34.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Account-TIS Child Account Site Format Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_35.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Account-TIS Country Code - Billing Address Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_36.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contact-Archive Reason%2C Email Opt out Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_37.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contact-Set Inbound Request to be Contacted Date Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_38.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Opportunity-COI ReadOnly at 30 Days Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_39.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Opportunity-TIS Bell Semiconductor %28C00691%29 - Engaged Product2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_40.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product2-Sync Product to NetSuite Product2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -127,8 +880,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J2" totalsRowShown="0">
-  <x:autoFilter ref="A1:J2"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J204" totalsRowShown="0">
+  <x:autoFilter ref="A1:J204"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -433,20 +1186,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J2"/>
+  <x:dimension ref="A1:J204"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.550625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.550625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.700625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="17.130625000000002" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="68.700624999999988" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="59.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="107.70062499999999" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="102.70062499999999" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -484,16 +1237,4160 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
+      <x:c r="A2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s"/>
+      <x:c r="F20" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s"/>
+      <x:c r="F23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="0" t="s"/>
+      <x:c r="B24" s="0" t="s"/>
+      <x:c r="C24" s="0" t="s"/>
+      <x:c r="D24" s="0" t="s"/>
+      <x:c r="E24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:10">
+      <x:c r="A25" s="0" t="s"/>
+      <x:c r="B25" s="0" t="s"/>
+      <x:c r="C25" s="0" t="s"/>
+      <x:c r="D25" s="0" t="s"/>
+      <x:c r="E25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="0" t="s"/>
+      <x:c r="B26" s="0" t="s"/>
+      <x:c r="C26" s="0" t="s"/>
+      <x:c r="D26" s="0" t="s"/>
+      <x:c r="E26" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="0" t="s"/>
+      <x:c r="B27" s="0" t="s"/>
+      <x:c r="C27" s="0" t="s"/>
+      <x:c r="D27" s="0" t="s"/>
+      <x:c r="E27" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s"/>
+      <x:c r="J27" s="0" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:10">
+      <x:c r="A28" s="0" t="s"/>
+      <x:c r="B28" s="0" t="s"/>
+      <x:c r="C28" s="0" t="s"/>
+      <x:c r="D28" s="0" t="s"/>
+      <x:c r="E28" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s"/>
+      <x:c r="J28" s="0" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:10">
+      <x:c r="A29" s="0" t="s"/>
+      <x:c r="B29" s="0" t="s"/>
+      <x:c r="C29" s="0" t="s"/>
+      <x:c r="D29" s="0" t="s"/>
+      <x:c r="E29" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s"/>
+      <x:c r="J29" s="0" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:10">
+      <x:c r="A30" s="0" t="s"/>
+      <x:c r="B30" s="0" t="s"/>
+      <x:c r="C30" s="0" t="s"/>
+      <x:c r="D30" s="0" t="s"/>
+      <x:c r="E30" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s"/>
+      <x:c r="J30" s="0" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:10">
+      <x:c r="A31" s="0" t="s"/>
+      <x:c r="B31" s="0" t="s"/>
+      <x:c r="C31" s="0" t="s"/>
+      <x:c r="D31" s="0" t="s"/>
+      <x:c r="E31" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s"/>
+      <x:c r="J31" s="0" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:10">
+      <x:c r="A32" s="0" t="s"/>
+      <x:c r="B32" s="0" t="s"/>
+      <x:c r="C32" s="0" t="s"/>
+      <x:c r="D32" s="0" t="s"/>
+      <x:c r="E32" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s"/>
+      <x:c r="J32" s="0" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:10">
+      <x:c r="A33" s="0" t="s"/>
+      <x:c r="B33" s="0" t="s"/>
+      <x:c r="C33" s="0" t="s"/>
+      <x:c r="D33" s="0" t="s"/>
+      <x:c r="E33" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s"/>
+      <x:c r="J33" s="0" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:10">
+      <x:c r="A34" s="0" t="s"/>
+      <x:c r="B34" s="0" t="s"/>
+      <x:c r="C34" s="0" t="s"/>
+      <x:c r="D34" s="0" t="s"/>
+      <x:c r="E34" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s"/>
+      <x:c r="J34" s="0" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:10">
+      <x:c r="A35" s="0" t="s"/>
+      <x:c r="B35" s="0" t="s"/>
+      <x:c r="C35" s="0" t="s"/>
+      <x:c r="D35" s="0" t="s"/>
+      <x:c r="E35" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s"/>
+      <x:c r="J35" s="0" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:10">
+      <x:c r="A36" s="0" t="s"/>
+      <x:c r="B36" s="0" t="s"/>
+      <x:c r="C36" s="0" t="s"/>
+      <x:c r="D36" s="0" t="s"/>
+      <x:c r="E36" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s"/>
+      <x:c r="J36" s="0" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:10">
+      <x:c r="A37" s="0" t="s"/>
+      <x:c r="B37" s="0" t="s"/>
+      <x:c r="C37" s="0" t="s"/>
+      <x:c r="D37" s="0" t="s"/>
+      <x:c r="E37" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s"/>
+      <x:c r="J37" s="0" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:10">
+      <x:c r="A38" s="0" t="s"/>
+      <x:c r="B38" s="0" t="s"/>
+      <x:c r="C38" s="0" t="s"/>
+      <x:c r="D38" s="0" t="s"/>
+      <x:c r="E38" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s"/>
+      <x:c r="J38" s="0" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:10">
+      <x:c r="A39" s="0" t="s"/>
+      <x:c r="B39" s="0" t="s"/>
+      <x:c r="C39" s="0" t="s"/>
+      <x:c r="D39" s="0" t="s"/>
+      <x:c r="E39" s="0" t="s"/>
+      <x:c r="F39" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s"/>
+      <x:c r="J39" s="0" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:10">
+      <x:c r="A40" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s"/>
+      <x:c r="F40" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s"/>
+      <x:c r="J40" s="0" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:10">
+      <x:c r="A41" s="0" t="s"/>
+      <x:c r="B41" s="0" t="s"/>
+      <x:c r="C41" s="0" t="s"/>
+      <x:c r="D41" s="0" t="s"/>
+      <x:c r="E41" s="0" t="s"/>
+      <x:c r="F41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s"/>
+      <x:c r="J41" s="0" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:10">
+      <x:c r="A42" s="0" t="s"/>
+      <x:c r="B42" s="0" t="s"/>
+      <x:c r="C42" s="0" t="s"/>
+      <x:c r="D42" s="0" t="s"/>
+      <x:c r="E42" s="0" t="s"/>
+      <x:c r="F42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s"/>
+      <x:c r="J42" s="0" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:10">
+      <x:c r="A43" s="0" t="s"/>
+      <x:c r="B43" s="0" t="s"/>
+      <x:c r="C43" s="0" t="s"/>
+      <x:c r="D43" s="0" t="s"/>
+      <x:c r="E43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s"/>
+      <x:c r="J43" s="0" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:10">
+      <x:c r="A44" s="0" t="s"/>
+      <x:c r="B44" s="0" t="s"/>
+      <x:c r="C44" s="0" t="s"/>
+      <x:c r="D44" s="0" t="s"/>
+      <x:c r="E44" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:10">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="0" t="s"/>
+      <x:c r="B46" s="0" t="s"/>
+      <x:c r="C46" s="0" t="s"/>
+      <x:c r="D46" s="0" t="s"/>
+      <x:c r="E46" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:10">
+      <x:c r="A49" s="0" t="s"/>
+      <x:c r="B49" s="0" t="s"/>
+      <x:c r="C49" s="0" t="s"/>
+      <x:c r="D49" s="0" t="s"/>
+      <x:c r="E49" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:10">
+      <x:c r="A50" s="0" t="s"/>
+      <x:c r="B50" s="0" t="s"/>
+      <x:c r="C50" s="0" t="s"/>
+      <x:c r="D50" s="0" t="s"/>
+      <x:c r="E50" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s"/>
+      <x:c r="J50" s="0" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:10">
+      <x:c r="A51" s="0" t="s"/>
+      <x:c r="B51" s="0" t="s"/>
+      <x:c r="C51" s="0" t="s"/>
+      <x:c r="D51" s="0" t="s"/>
+      <x:c r="E51" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s"/>
+      <x:c r="J51" s="0" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:10">
+      <x:c r="A52" s="0" t="s"/>
+      <x:c r="B52" s="0" t="s"/>
+      <x:c r="C52" s="0" t="s"/>
+      <x:c r="D52" s="0" t="s"/>
+      <x:c r="E52" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s"/>
+      <x:c r="J52" s="0" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:10">
+      <x:c r="A53" s="0" t="s"/>
+      <x:c r="B53" s="0" t="s"/>
+      <x:c r="C53" s="0" t="s"/>
+      <x:c r="D53" s="0" t="s"/>
+      <x:c r="E53" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s"/>
+      <x:c r="J53" s="0" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:10">
+      <x:c r="A54" s="0" t="s"/>
+      <x:c r="B54" s="0" t="s"/>
+      <x:c r="C54" s="0" t="s"/>
+      <x:c r="D54" s="0" t="s"/>
+      <x:c r="E54" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s"/>
+      <x:c r="J54" s="0" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:10">
+      <x:c r="A55" s="0" t="s"/>
+      <x:c r="B55" s="0" t="s"/>
+      <x:c r="C55" s="0" t="s"/>
+      <x:c r="D55" s="0" t="s"/>
+      <x:c r="E55" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s"/>
+      <x:c r="J55" s="0" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:10">
+      <x:c r="A56" s="0" t="s"/>
+      <x:c r="B56" s="0" t="s"/>
+      <x:c r="C56" s="0" t="s"/>
+      <x:c r="D56" s="0" t="s"/>
+      <x:c r="E56" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s"/>
+      <x:c r="J56" s="0" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:10">
+      <x:c r="A57" s="0" t="s"/>
+      <x:c r="B57" s="0" t="s"/>
+      <x:c r="C57" s="0" t="s"/>
+      <x:c r="D57" s="0" t="s"/>
+      <x:c r="E57" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s"/>
+      <x:c r="J57" s="0" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:10">
+      <x:c r="A58" s="0" t="s"/>
+      <x:c r="B58" s="0" t="s"/>
+      <x:c r="C58" s="0" t="s"/>
+      <x:c r="D58" s="0" t="s"/>
+      <x:c r="E58" s="0" t="s"/>
+      <x:c r="F58" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s"/>
+      <x:c r="J58" s="0" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:10">
+      <x:c r="A59" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s"/>
+      <x:c r="F59" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s"/>
+      <x:c r="J59" s="0" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:10">
+      <x:c r="A60" s="0" t="s"/>
+      <x:c r="B60" s="0" t="s"/>
+      <x:c r="C60" s="0" t="s"/>
+      <x:c r="D60" s="0" t="s"/>
+      <x:c r="E60" s="0" t="s"/>
+      <x:c r="F60" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s"/>
+      <x:c r="J60" s="0" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:10">
+      <x:c r="A61" s="0" t="s"/>
+      <x:c r="B61" s="0" t="s"/>
+      <x:c r="C61" s="0" t="s"/>
+      <x:c r="D61" s="0" t="s"/>
+      <x:c r="E61" s="0" t="s"/>
+      <x:c r="F61" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s"/>
+      <x:c r="J61" s="0" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:10">
+      <x:c r="A62" s="0" t="s"/>
+      <x:c r="B62" s="0" t="s"/>
+      <x:c r="C62" s="0" t="s"/>
+      <x:c r="D62" s="0" t="s"/>
+      <x:c r="E62" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s"/>
+      <x:c r="J62" s="0" t="s"/>
+    </x:row>
+    <x:row r="63" spans="1:10">
+      <x:c r="A63" s="0" t="s"/>
+      <x:c r="B63" s="0" t="s"/>
+      <x:c r="C63" s="0" t="s"/>
+      <x:c r="D63" s="0" t="s"/>
+      <x:c r="E63" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s"/>
+      <x:c r="J63" s="0" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:10">
+      <x:c r="A64" s="0" t="s"/>
+      <x:c r="B64" s="0" t="s"/>
+      <x:c r="C64" s="0" t="s"/>
+      <x:c r="D64" s="0" t="s"/>
+      <x:c r="E64" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s"/>
+      <x:c r="J64" s="0" t="s"/>
+    </x:row>
+    <x:row r="65" spans="1:10">
+      <x:c r="A65" s="0" t="s"/>
+      <x:c r="B65" s="0" t="s"/>
+      <x:c r="C65" s="0" t="s"/>
+      <x:c r="D65" s="0" t="s"/>
+      <x:c r="E65" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s"/>
+      <x:c r="J65" s="0" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:10">
+      <x:c r="A66" s="0" t="s"/>
+      <x:c r="B66" s="0" t="s"/>
+      <x:c r="C66" s="0" t="s"/>
+      <x:c r="D66" s="0" t="s"/>
+      <x:c r="E66" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s"/>
+      <x:c r="J66" s="0" t="s"/>
+    </x:row>
+    <x:row r="67" spans="1:10">
+      <x:c r="A67" s="0" t="s"/>
+      <x:c r="B67" s="0" t="s"/>
+      <x:c r="C67" s="0" t="s"/>
+      <x:c r="D67" s="0" t="s"/>
+      <x:c r="E67" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s"/>
+      <x:c r="J67" s="0" t="s"/>
+    </x:row>
+    <x:row r="68" spans="1:10">
+      <x:c r="A68" s="0" t="s"/>
+      <x:c r="B68" s="0" t="s"/>
+      <x:c r="C68" s="0" t="s"/>
+      <x:c r="D68" s="0" t="s"/>
+      <x:c r="E68" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s"/>
+      <x:c r="J68" s="0" t="s"/>
+    </x:row>
+    <x:row r="69" spans="1:10">
+      <x:c r="A69" s="0" t="s"/>
+      <x:c r="B69" s="0" t="s"/>
+      <x:c r="C69" s="0" t="s"/>
+      <x:c r="D69" s="0" t="s"/>
+      <x:c r="E69" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s"/>
+      <x:c r="J69" s="0" t="s"/>
+    </x:row>
+    <x:row r="70" spans="1:10">
+      <x:c r="A70" s="0" t="s"/>
+      <x:c r="B70" s="0" t="s"/>
+      <x:c r="C70" s="0" t="s"/>
+      <x:c r="D70" s="0" t="s"/>
+      <x:c r="E70" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s"/>
+      <x:c r="J70" s="0" t="s"/>
+    </x:row>
+    <x:row r="71" spans="1:10">
+      <x:c r="A71" s="0" t="s"/>
+      <x:c r="B71" s="0" t="s"/>
+      <x:c r="C71" s="0" t="s"/>
+      <x:c r="D71" s="0" t="s"/>
+      <x:c r="E71" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s"/>
+      <x:c r="J71" s="0" t="s"/>
+    </x:row>
+    <x:row r="72" spans="1:10">
+      <x:c r="A72" s="0" t="s"/>
+      <x:c r="B72" s="0" t="s"/>
+      <x:c r="C72" s="0" t="s"/>
+      <x:c r="D72" s="0" t="s"/>
+      <x:c r="E72" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="s"/>
+      <x:c r="J72" s="0" t="s"/>
+    </x:row>
+    <x:row r="73" spans="1:10">
+      <x:c r="A73" s="0" t="s"/>
+      <x:c r="B73" s="0" t="s"/>
+      <x:c r="C73" s="0" t="s"/>
+      <x:c r="D73" s="0" t="s"/>
+      <x:c r="E73" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="s"/>
+      <x:c r="J73" s="0" t="s"/>
+    </x:row>
+    <x:row r="74" spans="1:10">
+      <x:c r="A74" s="0" t="s"/>
+      <x:c r="B74" s="0" t="s"/>
+      <x:c r="C74" s="0" t="s"/>
+      <x:c r="D74" s="0" t="s"/>
+      <x:c r="E74" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s"/>
+      <x:c r="J74" s="0" t="s"/>
+    </x:row>
+    <x:row r="75" spans="1:10">
+      <x:c r="A75" s="0" t="s"/>
+      <x:c r="B75" s="0" t="s"/>
+      <x:c r="C75" s="0" t="s"/>
+      <x:c r="D75" s="0" t="s"/>
+      <x:c r="E75" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s"/>
+      <x:c r="J75" s="0" t="s"/>
+    </x:row>
+    <x:row r="76" spans="1:10">
+      <x:c r="A76" s="0" t="s"/>
+      <x:c r="B76" s="0" t="s"/>
+      <x:c r="C76" s="0" t="s"/>
+      <x:c r="D76" s="0" t="s"/>
+      <x:c r="E76" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="s"/>
+      <x:c r="J76" s="0" t="s"/>
+    </x:row>
+    <x:row r="77" spans="1:10">
+      <x:c r="A77" s="0" t="s"/>
+      <x:c r="B77" s="0" t="s"/>
+      <x:c r="C77" s="0" t="s"/>
+      <x:c r="D77" s="0" t="s"/>
+      <x:c r="E77" s="0" t="s"/>
+      <x:c r="F77" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="s"/>
+      <x:c r="J77" s="0" t="s"/>
+    </x:row>
+    <x:row r="78" spans="1:10">
+      <x:c r="A78" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s"/>
+      <x:c r="F78" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I78" s="0" t="s"/>
+      <x:c r="J78" s="0" t="s"/>
+    </x:row>
+    <x:row r="79" spans="1:10">
+      <x:c r="A79" s="0" t="s"/>
+      <x:c r="B79" s="0" t="s"/>
+      <x:c r="C79" s="0" t="s"/>
+      <x:c r="D79" s="0" t="s"/>
+      <x:c r="E79" s="0" t="s"/>
+      <x:c r="F79" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I79" s="0" t="s"/>
+      <x:c r="J79" s="0" t="s"/>
+    </x:row>
+    <x:row r="80" spans="1:10">
+      <x:c r="A80" s="0" t="s"/>
+      <x:c r="B80" s="0" t="s"/>
+      <x:c r="C80" s="0" t="s"/>
+      <x:c r="D80" s="0" t="s"/>
+      <x:c r="E80" s="0" t="s"/>
+      <x:c r="F80" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I80" s="0" t="s"/>
+      <x:c r="J80" s="0" t="s"/>
+    </x:row>
+    <x:row r="81" spans="1:10">
+      <x:c r="A81" s="0" t="s"/>
+      <x:c r="B81" s="0" t="s"/>
+      <x:c r="C81" s="0" t="s"/>
+      <x:c r="D81" s="0" t="s"/>
+      <x:c r="E81" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H81" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I81" s="0" t="s"/>
+      <x:c r="J81" s="0" t="s"/>
+    </x:row>
+    <x:row r="82" spans="1:10">
+      <x:c r="A82" s="0" t="s"/>
+      <x:c r="B82" s="0" t="s"/>
+      <x:c r="C82" s="0" t="s"/>
+      <x:c r="D82" s="0" t="s"/>
+      <x:c r="E82" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G82" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H82" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I82" s="0" t="s"/>
+      <x:c r="J82" s="0" t="s"/>
+    </x:row>
+    <x:row r="83" spans="1:10">
+      <x:c r="A83" s="0" t="s"/>
+      <x:c r="B83" s="0" t="s"/>
+      <x:c r="C83" s="0" t="s"/>
+      <x:c r="D83" s="0" t="s"/>
+      <x:c r="E83" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H83" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I83" s="0" t="s"/>
+      <x:c r="J83" s="0" t="s"/>
+    </x:row>
+    <x:row r="84" spans="1:10">
+      <x:c r="A84" s="0" t="s"/>
+      <x:c r="B84" s="0" t="s"/>
+      <x:c r="C84" s="0" t="s"/>
+      <x:c r="D84" s="0" t="s"/>
+      <x:c r="E84" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I84" s="0" t="s"/>
+      <x:c r="J84" s="0" t="s"/>
+    </x:row>
+    <x:row r="85" spans="1:10">
+      <x:c r="A85" s="0" t="s"/>
+      <x:c r="B85" s="0" t="s"/>
+      <x:c r="C85" s="0" t="s"/>
+      <x:c r="D85" s="0" t="s"/>
+      <x:c r="E85" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G85" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H85" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I85" s="0" t="s"/>
+      <x:c r="J85" s="0" t="s"/>
+    </x:row>
+    <x:row r="86" spans="1:10">
+      <x:c r="A86" s="0" t="s"/>
+      <x:c r="B86" s="0" t="s"/>
+      <x:c r="C86" s="0" t="s"/>
+      <x:c r="D86" s="0" t="s"/>
+      <x:c r="E86" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G86" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H86" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I86" s="0" t="s"/>
+      <x:c r="J86" s="0" t="s"/>
+    </x:row>
+    <x:row r="87" spans="1:10">
+      <x:c r="A87" s="0" t="s"/>
+      <x:c r="B87" s="0" t="s"/>
+      <x:c r="C87" s="0" t="s"/>
+      <x:c r="D87" s="0" t="s"/>
+      <x:c r="E87" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G87" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H87" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I87" s="0" t="s"/>
+      <x:c r="J87" s="0" t="s"/>
+    </x:row>
+    <x:row r="88" spans="1:10">
+      <x:c r="A88" s="0" t="s"/>
+      <x:c r="B88" s="0" t="s"/>
+      <x:c r="C88" s="0" t="s"/>
+      <x:c r="D88" s="0" t="s"/>
+      <x:c r="E88" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G88" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H88" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I88" s="0" t="s"/>
+      <x:c r="J88" s="0" t="s"/>
+    </x:row>
+    <x:row r="89" spans="1:10">
+      <x:c r="A89" s="0" t="s"/>
+      <x:c r="B89" s="0" t="s"/>
+      <x:c r="C89" s="0" t="s"/>
+      <x:c r="D89" s="0" t="s"/>
+      <x:c r="E89" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G89" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H89" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I89" s="0" t="s"/>
+      <x:c r="J89" s="0" t="s"/>
+    </x:row>
+    <x:row r="90" spans="1:10">
+      <x:c r="A90" s="0" t="s"/>
+      <x:c r="B90" s="0" t="s"/>
+      <x:c r="C90" s="0" t="s"/>
+      <x:c r="D90" s="0" t="s"/>
+      <x:c r="E90" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G90" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H90" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I90" s="0" t="s"/>
+      <x:c r="J90" s="0" t="s"/>
+    </x:row>
+    <x:row r="91" spans="1:10">
+      <x:c r="A91" s="0" t="s"/>
+      <x:c r="B91" s="0" t="s"/>
+      <x:c r="C91" s="0" t="s"/>
+      <x:c r="D91" s="0" t="s"/>
+      <x:c r="E91" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G91" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H91" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I91" s="0" t="s"/>
+      <x:c r="J91" s="0" t="s"/>
+    </x:row>
+    <x:row r="92" spans="1:10">
+      <x:c r="A92" s="0" t="s"/>
+      <x:c r="B92" s="0" t="s"/>
+      <x:c r="C92" s="0" t="s"/>
+      <x:c r="D92" s="0" t="s"/>
+      <x:c r="E92" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G92" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H92" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I92" s="0" t="s"/>
+      <x:c r="J92" s="0" t="s"/>
+    </x:row>
+    <x:row r="93" spans="1:10">
+      <x:c r="A93" s="0" t="s"/>
+      <x:c r="B93" s="0" t="s"/>
+      <x:c r="C93" s="0" t="s"/>
+      <x:c r="D93" s="0" t="s"/>
+      <x:c r="E93" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G93" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H93" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I93" s="0" t="s"/>
+      <x:c r="J93" s="0" t="s"/>
+    </x:row>
+    <x:row r="94" spans="1:10">
+      <x:c r="A94" s="0" t="s"/>
+      <x:c r="B94" s="0" t="s"/>
+      <x:c r="C94" s="0" t="s"/>
+      <x:c r="D94" s="0" t="s"/>
+      <x:c r="E94" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G94" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H94" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I94" s="0" t="s"/>
+      <x:c r="J94" s="0" t="s"/>
+    </x:row>
+    <x:row r="95" spans="1:10">
+      <x:c r="A95" s="0" t="s"/>
+      <x:c r="B95" s="0" t="s"/>
+      <x:c r="C95" s="0" t="s"/>
+      <x:c r="D95" s="0" t="s"/>
+      <x:c r="E95" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G95" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H95" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I95" s="0" t="s"/>
+      <x:c r="J95" s="0" t="s"/>
+    </x:row>
+    <x:row r="96" spans="1:10">
+      <x:c r="A96" s="0" t="s"/>
+      <x:c r="B96" s="0" t="s"/>
+      <x:c r="C96" s="0" t="s"/>
+      <x:c r="D96" s="0" t="s"/>
+      <x:c r="E96" s="0" t="s"/>
+      <x:c r="F96" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G96" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="H96" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I96" s="0" t="s"/>
+      <x:c r="J96" s="0" t="s"/>
+    </x:row>
+    <x:row r="97" spans="1:10">
+      <x:c r="A97" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s"/>
+      <x:c r="F97" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G97" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H97" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I97" s="0" t="s"/>
+      <x:c r="J97" s="0" t="s"/>
+    </x:row>
+    <x:row r="98" spans="1:10">
+      <x:c r="A98" s="0" t="s"/>
+      <x:c r="B98" s="0" t="s"/>
+      <x:c r="C98" s="0" t="s"/>
+      <x:c r="D98" s="0" t="s"/>
+      <x:c r="E98" s="0" t="s"/>
+      <x:c r="F98" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G98" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H98" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="I98" s="0" t="s"/>
+      <x:c r="J98" s="0" t="s"/>
+    </x:row>
+    <x:row r="99" spans="1:10">
+      <x:c r="A99" s="0" t="s"/>
+      <x:c r="B99" s="0" t="s"/>
+      <x:c r="C99" s="0" t="s"/>
+      <x:c r="D99" s="0" t="s"/>
+      <x:c r="E99" s="0" t="s"/>
+      <x:c r="F99" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G99" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="H99" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I99" s="0" t="s"/>
+      <x:c r="J99" s="0" t="s"/>
+    </x:row>
+    <x:row r="100" spans="1:10">
+      <x:c r="A100" s="0" t="s"/>
+      <x:c r="B100" s="0" t="s"/>
+      <x:c r="C100" s="0" t="s"/>
+      <x:c r="D100" s="0" t="s"/>
+      <x:c r="E100" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G100" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H100" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I100" s="0" t="s"/>
+      <x:c r="J100" s="0" t="s"/>
+    </x:row>
+    <x:row r="101" spans="1:10">
+      <x:c r="A101" s="0" t="s"/>
+      <x:c r="B101" s="0" t="s"/>
+      <x:c r="C101" s="0" t="s"/>
+      <x:c r="D101" s="0" t="s"/>
+      <x:c r="E101" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H101" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I101" s="0" t="s"/>
+      <x:c r="J101" s="0" t="s"/>
+    </x:row>
+    <x:row r="102" spans="1:10">
+      <x:c r="A102" s="0" t="s"/>
+      <x:c r="B102" s="0" t="s"/>
+      <x:c r="C102" s="0" t="s"/>
+      <x:c r="D102" s="0" t="s"/>
+      <x:c r="E102" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F102" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G102" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H102" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I102" s="0" t="s"/>
+      <x:c r="J102" s="0" t="s"/>
+    </x:row>
+    <x:row r="103" spans="1:10">
+      <x:c r="A103" s="0" t="s"/>
+      <x:c r="B103" s="0" t="s"/>
+      <x:c r="C103" s="0" t="s"/>
+      <x:c r="D103" s="0" t="s"/>
+      <x:c r="E103" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F103" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G103" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H103" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I103" s="0" t="s"/>
+      <x:c r="J103" s="0" t="s"/>
+    </x:row>
+    <x:row r="104" spans="1:10">
+      <x:c r="A104" s="0" t="s"/>
+      <x:c r="B104" s="0" t="s"/>
+      <x:c r="C104" s="0" t="s"/>
+      <x:c r="D104" s="0" t="s"/>
+      <x:c r="E104" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F104" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G104" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H104" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I104" s="0" t="s"/>
+      <x:c r="J104" s="0" t="s"/>
+    </x:row>
+    <x:row r="105" spans="1:10">
+      <x:c r="A105" s="0" t="s"/>
+      <x:c r="B105" s="0" t="s"/>
+      <x:c r="C105" s="0" t="s"/>
+      <x:c r="D105" s="0" t="s"/>
+      <x:c r="E105" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F105" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G105" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H105" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I105" s="0" t="s"/>
+      <x:c r="J105" s="0" t="s"/>
+    </x:row>
+    <x:row r="106" spans="1:10">
+      <x:c r="A106" s="0" t="s"/>
+      <x:c r="B106" s="0" t="s"/>
+      <x:c r="C106" s="0" t="s"/>
+      <x:c r="D106" s="0" t="s"/>
+      <x:c r="E106" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F106" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G106" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H106" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I106" s="0" t="s"/>
+      <x:c r="J106" s="0" t="s"/>
+    </x:row>
+    <x:row r="107" spans="1:10">
+      <x:c r="A107" s="0" t="s"/>
+      <x:c r="B107" s="0" t="s"/>
+      <x:c r="C107" s="0" t="s"/>
+      <x:c r="D107" s="0" t="s"/>
+      <x:c r="E107" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F107" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G107" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H107" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I107" s="0" t="s"/>
+      <x:c r="J107" s="0" t="s"/>
+    </x:row>
+    <x:row r="108" spans="1:10">
+      <x:c r="A108" s="0" t="s"/>
+      <x:c r="B108" s="0" t="s"/>
+      <x:c r="C108" s="0" t="s"/>
+      <x:c r="D108" s="0" t="s"/>
+      <x:c r="E108" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F108" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G108" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H108" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I108" s="0" t="s"/>
+      <x:c r="J108" s="0" t="s"/>
+    </x:row>
+    <x:row r="109" spans="1:10">
+      <x:c r="A109" s="0" t="s"/>
+      <x:c r="B109" s="0" t="s"/>
+      <x:c r="C109" s="0" t="s"/>
+      <x:c r="D109" s="0" t="s"/>
+      <x:c r="E109" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F109" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G109" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H109" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I109" s="0" t="s"/>
+      <x:c r="J109" s="0" t="s"/>
+    </x:row>
+    <x:row r="110" spans="1:10">
+      <x:c r="A110" s="0" t="s"/>
+      <x:c r="B110" s="0" t="s"/>
+      <x:c r="C110" s="0" t="s"/>
+      <x:c r="D110" s="0" t="s"/>
+      <x:c r="E110" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F110" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G110" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H110" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I110" s="0" t="s"/>
+      <x:c r="J110" s="0" t="s"/>
+    </x:row>
+    <x:row r="111" spans="1:10">
+      <x:c r="A111" s="0" t="s"/>
+      <x:c r="B111" s="0" t="s"/>
+      <x:c r="C111" s="0" t="s"/>
+      <x:c r="D111" s="0" t="s"/>
+      <x:c r="E111" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F111" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G111" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H111" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I111" s="0" t="s"/>
+      <x:c r="J111" s="0" t="s"/>
+    </x:row>
+    <x:row r="112" spans="1:10">
+      <x:c r="A112" s="0" t="s"/>
+      <x:c r="B112" s="0" t="s"/>
+      <x:c r="C112" s="0" t="s"/>
+      <x:c r="D112" s="0" t="s"/>
+      <x:c r="E112" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F112" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G112" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H112" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I112" s="0" t="s"/>
+      <x:c r="J112" s="0" t="s"/>
+    </x:row>
+    <x:row r="113" spans="1:10">
+      <x:c r="A113" s="0" t="s"/>
+      <x:c r="B113" s="0" t="s"/>
+      <x:c r="C113" s="0" t="s"/>
+      <x:c r="D113" s="0" t="s"/>
+      <x:c r="E113" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F113" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G113" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H113" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I113" s="0" t="s"/>
+      <x:c r="J113" s="0" t="s"/>
+    </x:row>
+    <x:row r="114" spans="1:10">
+      <x:c r="A114" s="0" t="s"/>
+      <x:c r="B114" s="0" t="s"/>
+      <x:c r="C114" s="0" t="s"/>
+      <x:c r="D114" s="0" t="s"/>
+      <x:c r="E114" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F114" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G114" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H114" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I114" s="0" t="s"/>
+      <x:c r="J114" s="0" t="s"/>
+    </x:row>
+    <x:row r="115" spans="1:10">
+      <x:c r="A115" s="0" t="s"/>
+      <x:c r="B115" s="0" t="s"/>
+      <x:c r="C115" s="0" t="s"/>
+      <x:c r="D115" s="0" t="s"/>
+      <x:c r="E115" s="0" t="s"/>
+      <x:c r="F115" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G115" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="H115" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I115" s="0" t="s"/>
+      <x:c r="J115" s="0" t="s"/>
+    </x:row>
+    <x:row r="116" spans="1:10">
+      <x:c r="A116" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D116" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E116" s="0" t="s"/>
+      <x:c r="F116" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G116" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H116" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I116" s="0" t="s"/>
+      <x:c r="J116" s="0" t="s"/>
+    </x:row>
+    <x:row r="117" spans="1:10">
+      <x:c r="A117" s="0" t="s"/>
+      <x:c r="B117" s="0" t="s"/>
+      <x:c r="C117" s="0" t="s"/>
+      <x:c r="D117" s="0" t="s"/>
+      <x:c r="E117" s="0" t="s"/>
+      <x:c r="F117" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G117" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H117" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I117" s="0" t="s"/>
+      <x:c r="J117" s="0" t="s"/>
+    </x:row>
+    <x:row r="118" spans="1:10">
+      <x:c r="A118" s="0" t="s"/>
+      <x:c r="B118" s="0" t="s"/>
+      <x:c r="C118" s="0" t="s"/>
+      <x:c r="D118" s="0" t="s"/>
+      <x:c r="E118" s="0" t="s"/>
+      <x:c r="F118" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G118" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H118" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="I118" s="0" t="s"/>
+      <x:c r="J118" s="0" t="s"/>
+    </x:row>
+    <x:row r="119" spans="1:10">
+      <x:c r="A119" s="0" t="s"/>
+      <x:c r="B119" s="0" t="s"/>
+      <x:c r="C119" s="0" t="s"/>
+      <x:c r="D119" s="0" t="s"/>
+      <x:c r="E119" s="0" t="s"/>
+      <x:c r="F119" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G119" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="H119" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="I119" s="0" t="s"/>
+      <x:c r="J119" s="0" t="s"/>
+    </x:row>
+    <x:row r="120" spans="1:10">
+      <x:c r="A120" s="0" t="s"/>
+      <x:c r="B120" s="0" t="s"/>
+      <x:c r="C120" s="0" t="s"/>
+      <x:c r="D120" s="0" t="s"/>
+      <x:c r="E120" s="0" t="s"/>
+      <x:c r="F120" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G120" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="H120" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I120" s="0" t="s"/>
+      <x:c r="J120" s="0" t="s"/>
+    </x:row>
+    <x:row r="121" spans="1:10">
+      <x:c r="A121" s="0" t="s"/>
+      <x:c r="B121" s="0" t="s"/>
+      <x:c r="C121" s="0" t="s"/>
+      <x:c r="D121" s="0" t="s"/>
+      <x:c r="E121" s="0" t="s"/>
+      <x:c r="F121" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G121" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="H121" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="I121" s="0" t="s"/>
+      <x:c r="J121" s="0" t="s"/>
+    </x:row>
+    <x:row r="122" spans="1:10">
+      <x:c r="A122" s="0" t="s"/>
+      <x:c r="B122" s="0" t="s"/>
+      <x:c r="C122" s="0" t="s"/>
+      <x:c r="D122" s="0" t="s"/>
+      <x:c r="E122" s="0" t="s"/>
+      <x:c r="F122" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G122" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="H122" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="I122" s="0" t="s"/>
+      <x:c r="J122" s="0" t="s"/>
+    </x:row>
+    <x:row r="123" spans="1:10">
+      <x:c r="A123" s="0" t="s"/>
+      <x:c r="B123" s="0" t="s"/>
+      <x:c r="C123" s="0" t="s"/>
+      <x:c r="D123" s="0" t="s"/>
+      <x:c r="E123" s="0" t="s"/>
+      <x:c r="F123" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G123" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H123" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="I123" s="0" t="s"/>
+      <x:c r="J123" s="0" t="s"/>
+    </x:row>
+    <x:row r="124" spans="1:10">
+      <x:c r="A124" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D124" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E124" s="0" t="s"/>
+      <x:c r="F124" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G124" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H124" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I124" s="0" t="s"/>
+      <x:c r="J124" s="0" t="s"/>
+    </x:row>
+    <x:row r="125" spans="1:10">
+      <x:c r="A125" s="0" t="s"/>
+      <x:c r="B125" s="0" t="s"/>
+      <x:c r="C125" s="0" t="s"/>
+      <x:c r="D125" s="0" t="s"/>
+      <x:c r="E125" s="0" t="s"/>
+      <x:c r="F125" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G125" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H125" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I125" s="0" t="s"/>
+      <x:c r="J125" s="0" t="s"/>
+    </x:row>
+    <x:row r="126" spans="1:10">
+      <x:c r="A126" s="0" t="s"/>
+      <x:c r="B126" s="0" t="s"/>
+      <x:c r="C126" s="0" t="s"/>
+      <x:c r="D126" s="0" t="s"/>
+      <x:c r="E126" s="0" t="s"/>
+      <x:c r="F126" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G126" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H126" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="I126" s="0" t="s"/>
+      <x:c r="J126" s="0" t="s"/>
+    </x:row>
+    <x:row r="127" spans="1:10">
+      <x:c r="A127" s="0" t="s"/>
+      <x:c r="B127" s="0" t="s"/>
+      <x:c r="C127" s="0" t="s"/>
+      <x:c r="D127" s="0" t="s"/>
+      <x:c r="E127" s="0" t="s"/>
+      <x:c r="F127" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G127" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="H127" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="I127" s="0" t="s"/>
+      <x:c r="J127" s="0" t="s"/>
+    </x:row>
+    <x:row r="128" spans="1:10">
+      <x:c r="A128" s="0" t="s"/>
+      <x:c r="B128" s="0" t="s"/>
+      <x:c r="C128" s="0" t="s"/>
+      <x:c r="D128" s="0" t="s"/>
+      <x:c r="E128" s="0" t="s"/>
+      <x:c r="F128" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G128" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="H128" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="I128" s="0" t="s"/>
+      <x:c r="J128" s="0" t="s"/>
+    </x:row>
+    <x:row r="129" spans="1:10">
+      <x:c r="A129" s="0" t="s"/>
+      <x:c r="B129" s="0" t="s"/>
+      <x:c r="C129" s="0" t="s"/>
+      <x:c r="D129" s="0" t="s"/>
+      <x:c r="E129" s="0" t="s"/>
+      <x:c r="F129" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G129" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H129" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="I129" s="0" t="s"/>
+      <x:c r="J129" s="0" t="s"/>
+    </x:row>
+    <x:row r="130" spans="1:10">
+      <x:c r="A130" s="0" t="s"/>
+      <x:c r="B130" s="0" t="s"/>
+      <x:c r="C130" s="0" t="s"/>
+      <x:c r="D130" s="0" t="s"/>
+      <x:c r="E130" s="0" t="s"/>
+      <x:c r="F130" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G130" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="H130" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I130" s="0" t="s"/>
+      <x:c r="J130" s="0" t="s"/>
+    </x:row>
+    <x:row r="131" spans="1:10">
+      <x:c r="A131" s="0" t="s"/>
+      <x:c r="B131" s="0" t="s"/>
+      <x:c r="C131" s="0" t="s"/>
+      <x:c r="D131" s="0" t="s"/>
+      <x:c r="E131" s="0" t="s"/>
+      <x:c r="F131" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G131" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H131" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="I131" s="0" t="s"/>
+      <x:c r="J131" s="0" t="s"/>
+    </x:row>
+    <x:row r="132" spans="1:10">
+      <x:c r="A132" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D132" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E132" s="0" t="s"/>
+      <x:c r="F132" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G132" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="H132" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="I132" s="0" t="s"/>
+      <x:c r="J132" s="0" t="s"/>
+    </x:row>
+    <x:row r="133" spans="1:10">
+      <x:c r="A133" s="0" t="s"/>
+      <x:c r="B133" s="0" t="s"/>
+      <x:c r="C133" s="0" t="s"/>
+      <x:c r="D133" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E133" s="0" t="s"/>
+      <x:c r="F133" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G133" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="H133" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="I133" s="0" t="s"/>
+      <x:c r="J133" s="0" t="s"/>
+    </x:row>
+    <x:row r="134" spans="1:10">
+      <x:c r="A134" s="0" t="s"/>
+      <x:c r="B134" s="0" t="s"/>
+      <x:c r="C134" s="0" t="s"/>
+      <x:c r="D134" s="0" t="s"/>
+      <x:c r="E134" s="0" t="s"/>
+      <x:c r="F134" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G134" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="H134" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="I134" s="0" t="s"/>
+      <x:c r="J134" s="0" t="s"/>
+    </x:row>
+    <x:row r="135" spans="1:10">
+      <x:c r="A135" s="0" t="s"/>
+      <x:c r="B135" s="0" t="s"/>
+      <x:c r="C135" s="0" t="s"/>
+      <x:c r="D135" s="0" t="s"/>
+      <x:c r="E135" s="0" t="s"/>
+      <x:c r="F135" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G135" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H135" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="I135" s="0" t="s"/>
+      <x:c r="J135" s="0" t="s"/>
+    </x:row>
+    <x:row r="136" spans="1:10">
+      <x:c r="A136" s="0" t="s"/>
+      <x:c r="B136" s="0" t="s"/>
+      <x:c r="C136" s="0" t="s"/>
+      <x:c r="D136" s="0" t="s"/>
+      <x:c r="E136" s="0" t="s"/>
+      <x:c r="F136" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G136" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="H136" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I136" s="0" t="s"/>
+      <x:c r="J136" s="0" t="s"/>
+    </x:row>
+    <x:row r="137" spans="1:10">
+      <x:c r="A137" s="0" t="s"/>
+      <x:c r="B137" s="0" t="s"/>
+      <x:c r="C137" s="0" t="s"/>
+      <x:c r="D137" s="0" t="s"/>
+      <x:c r="E137" s="0" t="s"/>
+      <x:c r="F137" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G137" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H137" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="I137" s="0" t="s"/>
+      <x:c r="J137" s="0" t="s"/>
+    </x:row>
+    <x:row r="138" spans="1:10">
+      <x:c r="A138" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C138" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D138" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E138" s="0" t="s"/>
+      <x:c r="F138" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G138" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="H138" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="I138" s="0" t="s"/>
+      <x:c r="J138" s="0" t="s"/>
+    </x:row>
+    <x:row r="139" spans="1:10">
+      <x:c r="A139" s="0" t="s"/>
+      <x:c r="B139" s="0" t="s"/>
+      <x:c r="C139" s="0" t="s"/>
+      <x:c r="D139" s="0" t="s"/>
+      <x:c r="E139" s="0" t="s"/>
+      <x:c r="F139" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G139" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="H139" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="I139" s="0" t="s"/>
+      <x:c r="J139" s="0" t="s"/>
+    </x:row>
+    <x:row r="140" spans="1:10">
+      <x:c r="A140" s="0" t="s"/>
+      <x:c r="B140" s="0" t="s"/>
+      <x:c r="C140" s="0" t="s"/>
+      <x:c r="D140" s="0" t="s"/>
+      <x:c r="E140" s="0" t="s"/>
+      <x:c r="F140" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G140" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H140" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="I140" s="0" t="s"/>
+      <x:c r="J140" s="0" t="s"/>
+    </x:row>
+    <x:row r="141" spans="1:10">
+      <x:c r="A141" s="0" t="s"/>
+      <x:c r="B141" s="0" t="s"/>
+      <x:c r="C141" s="0" t="s"/>
+      <x:c r="D141" s="0" t="s"/>
+      <x:c r="E141" s="0" t="s"/>
+      <x:c r="F141" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G141" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="H141" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I141" s="0" t="s"/>
+      <x:c r="J141" s="0" t="s"/>
+    </x:row>
+    <x:row r="142" spans="1:10">
+      <x:c r="A142" s="0" t="s"/>
+      <x:c r="B142" s="0" t="s"/>
+      <x:c r="C142" s="0" t="s"/>
+      <x:c r="D142" s="0" t="s"/>
+      <x:c r="E142" s="0" t="s"/>
+      <x:c r="F142" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G142" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H142" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="I142" s="0" t="s"/>
+      <x:c r="J142" s="0" t="s"/>
+    </x:row>
+    <x:row r="143" spans="1:10">
+      <x:c r="A143" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C143" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D143" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E143" s="0" t="s"/>
+      <x:c r="F143" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G143" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="H143" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="I143" s="0" t="s"/>
+      <x:c r="J143" s="0" t="s"/>
+    </x:row>
+    <x:row r="144" spans="1:10">
+      <x:c r="A144" s="0" t="s"/>
+      <x:c r="B144" s="0" t="s"/>
+      <x:c r="C144" s="0" t="s"/>
+      <x:c r="D144" s="0" t="s"/>
+      <x:c r="E144" s="0" t="s"/>
+      <x:c r="F144" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G144" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="H144" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I144" s="0" t="s"/>
+      <x:c r="J144" s="0" t="s"/>
+    </x:row>
+    <x:row r="145" spans="1:10">
+      <x:c r="A145" s="0" t="s"/>
+      <x:c r="B145" s="0" t="s"/>
+      <x:c r="C145" s="0" t="s"/>
+      <x:c r="D145" s="0" t="s"/>
+      <x:c r="E145" s="0" t="s"/>
+      <x:c r="F145" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G145" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="H145" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="I145" s="0" t="s"/>
+      <x:c r="J145" s="0" t="s"/>
+    </x:row>
+    <x:row r="146" spans="1:10">
+      <x:c r="A146" s="0" t="s"/>
+      <x:c r="B146" s="0" t="s"/>
+      <x:c r="C146" s="0" t="s"/>
+      <x:c r="D146" s="0" t="s"/>
+      <x:c r="E146" s="0" t="s"/>
+      <x:c r="F146" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G146" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="H146" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="I146" s="0" t="s"/>
+      <x:c r="J146" s="0" t="s"/>
+    </x:row>
+    <x:row r="147" spans="1:10">
+      <x:c r="A147" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C147" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D147" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E147" s="0" t="s"/>
+      <x:c r="F147" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G147" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H147" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I147" s="0" t="s"/>
+      <x:c r="J147" s="0" t="s"/>
+    </x:row>
+    <x:row r="148" spans="1:10">
+      <x:c r="A148" s="0" t="s"/>
+      <x:c r="B148" s="0" t="s"/>
+      <x:c r="C148" s="0" t="s"/>
+      <x:c r="D148" s="0" t="s"/>
+      <x:c r="E148" s="0" t="s"/>
+      <x:c r="F148" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G148" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H148" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I148" s="0" t="s"/>
+      <x:c r="J148" s="0" t="s"/>
+    </x:row>
+    <x:row r="149" spans="1:10">
+      <x:c r="A149" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D149" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E149" s="0" t="s"/>
+      <x:c r="F149" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G149" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H149" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I149" s="0" t="s"/>
+      <x:c r="J149" s="0" t="s"/>
+    </x:row>
+    <x:row r="150" spans="1:10">
+      <x:c r="A150" s="0" t="s"/>
+      <x:c r="B150" s="0" t="s"/>
+      <x:c r="C150" s="0" t="s"/>
+      <x:c r="D150" s="0" t="s"/>
+      <x:c r="E150" s="0" t="s"/>
+      <x:c r="F150" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G150" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H150" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I150" s="0" t="s"/>
+      <x:c r="J150" s="0" t="s"/>
+    </x:row>
+    <x:row r="151" spans="1:10">
+      <x:c r="A151" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="D151" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E151" s="0" t="s"/>
+      <x:c r="F151" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G151" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H151" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I151" s="0" t="s"/>
+      <x:c r="J151" s="0" t="s"/>
+    </x:row>
+    <x:row r="152" spans="1:10">
+      <x:c r="A152" s="0" t="s"/>
+      <x:c r="B152" s="0" t="s"/>
+      <x:c r="C152" s="0" t="s"/>
+      <x:c r="D152" s="0" t="s"/>
+      <x:c r="E152" s="0" t="s"/>
+      <x:c r="F152" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G152" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H152" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I152" s="0" t="s"/>
+      <x:c r="J152" s="0" t="s"/>
+    </x:row>
+    <x:row r="153" spans="1:10">
+      <x:c r="A153" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C153" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D153" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E153" s="0" t="s"/>
+      <x:c r="F153" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G153" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H153" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I153" s="0" t="s"/>
+      <x:c r="J153" s="0" t="s"/>
+    </x:row>
+    <x:row r="154" spans="1:10">
+      <x:c r="A154" s="0" t="s"/>
+      <x:c r="B154" s="0" t="s"/>
+      <x:c r="C154" s="0" t="s"/>
+      <x:c r="D154" s="0" t="s"/>
+      <x:c r="E154" s="0" t="s"/>
+      <x:c r="F154" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G154" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H154" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I154" s="0" t="s"/>
+      <x:c r="J154" s="0" t="s"/>
+    </x:row>
+    <x:row r="155" spans="1:10">
+      <x:c r="A155" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C155" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="D155" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E155" s="0" t="s"/>
+      <x:c r="F155" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G155" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H155" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I155" s="0" t="s"/>
+      <x:c r="J155" s="0" t="s"/>
+    </x:row>
+    <x:row r="156" spans="1:10">
+      <x:c r="A156" s="0" t="s"/>
+      <x:c r="B156" s="0" t="s"/>
+      <x:c r="C156" s="0" t="s"/>
+      <x:c r="D156" s="0" t="s"/>
+      <x:c r="E156" s="0" t="s"/>
+      <x:c r="F156" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G156" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H156" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I156" s="0" t="s"/>
+      <x:c r="J156" s="0" t="s"/>
+    </x:row>
+    <x:row r="157" spans="1:10">
+      <x:c r="A157" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C157" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D157" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E157" s="0" t="s"/>
+      <x:c r="F157" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G157" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H157" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I157" s="0" t="s"/>
+      <x:c r="J157" s="0" t="s"/>
+    </x:row>
+    <x:row r="158" spans="1:10">
+      <x:c r="A158" s="0" t="s"/>
+      <x:c r="B158" s="0" t="s"/>
+      <x:c r="C158" s="0" t="s"/>
+      <x:c r="D158" s="0" t="s"/>
+      <x:c r="E158" s="0" t="s"/>
+      <x:c r="F158" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G158" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H158" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I158" s="0" t="s"/>
+      <x:c r="J158" s="0" t="s"/>
+    </x:row>
+    <x:row r="159" spans="1:10">
+      <x:c r="A159" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C159" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="D159" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E159" s="0" t="s"/>
+      <x:c r="F159" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G159" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H159" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I159" s="0" t="s"/>
+      <x:c r="J159" s="0" t="s"/>
+    </x:row>
+    <x:row r="160" spans="1:10">
+      <x:c r="A160" s="0" t="s"/>
+      <x:c r="B160" s="0" t="s"/>
+      <x:c r="C160" s="0" t="s"/>
+      <x:c r="D160" s="0" t="s"/>
+      <x:c r="E160" s="0" t="s"/>
+      <x:c r="F160" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G160" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H160" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I160" s="0" t="s"/>
+      <x:c r="J160" s="0" t="s"/>
+    </x:row>
+    <x:row r="161" spans="1:10">
+      <x:c r="A161" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C161" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D161" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E161" s="0" t="s"/>
+      <x:c r="F161" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G161" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H161" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I161" s="0" t="s"/>
+      <x:c r="J161" s="0" t="s"/>
+    </x:row>
+    <x:row r="162" spans="1:10">
+      <x:c r="A162" s="0" t="s"/>
+      <x:c r="B162" s="0" t="s"/>
+      <x:c r="C162" s="0" t="s"/>
+      <x:c r="D162" s="0" t="s"/>
+      <x:c r="E162" s="0" t="s"/>
+      <x:c r="F162" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G162" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H162" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I162" s="0" t="s"/>
+      <x:c r="J162" s="0" t="s"/>
+    </x:row>
+    <x:row r="163" spans="1:10">
+      <x:c r="A163" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C163" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D163" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E163" s="0" t="s"/>
+      <x:c r="F163" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G163" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H163" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I163" s="0" t="s"/>
+      <x:c r="J163" s="0" t="s"/>
+    </x:row>
+    <x:row r="164" spans="1:10">
+      <x:c r="A164" s="0" t="s"/>
+      <x:c r="B164" s="0" t="s"/>
+      <x:c r="C164" s="0" t="s"/>
+      <x:c r="D164" s="0" t="s"/>
+      <x:c r="E164" s="0" t="s"/>
+      <x:c r="F164" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G164" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H164" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I164" s="0" t="s"/>
+      <x:c r="J164" s="0" t="s"/>
+    </x:row>
+    <x:row r="165" spans="1:10">
+      <x:c r="A165" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C165" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="D165" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E165" s="0" t="s"/>
+      <x:c r="F165" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G165" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H165" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I165" s="0" t="s"/>
+      <x:c r="J165" s="0" t="s"/>
+    </x:row>
+    <x:row r="166" spans="1:10">
+      <x:c r="A166" s="0" t="s"/>
+      <x:c r="B166" s="0" t="s"/>
+      <x:c r="C166" s="0" t="s"/>
+      <x:c r="D166" s="0" t="s"/>
+      <x:c r="E166" s="0" t="s"/>
+      <x:c r="F166" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G166" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H166" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I166" s="0" t="s"/>
+      <x:c r="J166" s="0" t="s"/>
+    </x:row>
+    <x:row r="167" spans="1:10">
+      <x:c r="A167" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C167" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="D167" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E167" s="0" t="s"/>
+      <x:c r="F167" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G167" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H167" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I167" s="0" t="s"/>
+      <x:c r="J167" s="0" t="s"/>
+    </x:row>
+    <x:row r="168" spans="1:10">
+      <x:c r="A168" s="0" t="s"/>
+      <x:c r="B168" s="0" t="s"/>
+      <x:c r="C168" s="0" t="s"/>
+      <x:c r="D168" s="0" t="s"/>
+      <x:c r="E168" s="0" t="s"/>
+      <x:c r="F168" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G168" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H168" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I168" s="0" t="s"/>
+      <x:c r="J168" s="0" t="s"/>
+    </x:row>
+    <x:row r="169" spans="1:10">
+      <x:c r="A169" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C169" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="D169" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E169" s="0" t="s"/>
+      <x:c r="F169" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G169" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H169" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I169" s="0" t="s"/>
+      <x:c r="J169" s="0" t="s"/>
+    </x:row>
+    <x:row r="170" spans="1:10">
+      <x:c r="A170" s="0" t="s"/>
+      <x:c r="B170" s="0" t="s"/>
+      <x:c r="C170" s="0" t="s"/>
+      <x:c r="D170" s="0" t="s"/>
+      <x:c r="E170" s="0" t="s"/>
+      <x:c r="F170" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G170" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H170" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I170" s="0" t="s"/>
+      <x:c r="J170" s="0" t="s"/>
+    </x:row>
+    <x:row r="171" spans="1:10">
+      <x:c r="A171" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C171" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D171" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E171" s="0" t="s"/>
+      <x:c r="F171" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G171" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H171" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I171" s="0" t="s"/>
+      <x:c r="J171" s="0" t="s"/>
+    </x:row>
+    <x:row r="172" spans="1:10">
+      <x:c r="A172" s="0" t="s"/>
+      <x:c r="B172" s="0" t="s"/>
+      <x:c r="C172" s="0" t="s"/>
+      <x:c r="D172" s="0" t="s"/>
+      <x:c r="E172" s="0" t="s"/>
+      <x:c r="F172" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G172" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H172" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I172" s="0" t="s"/>
+      <x:c r="J172" s="0" t="s"/>
+    </x:row>
+    <x:row r="173" spans="1:10">
+      <x:c r="A173" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C173" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D173" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E173" s="0" t="s"/>
+      <x:c r="F173" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G173" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H173" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I173" s="0" t="s"/>
+      <x:c r="J173" s="0" t="s"/>
+    </x:row>
+    <x:row r="174" spans="1:10">
+      <x:c r="A174" s="0" t="s"/>
+      <x:c r="B174" s="0" t="s"/>
+      <x:c r="C174" s="0" t="s"/>
+      <x:c r="D174" s="0" t="s"/>
+      <x:c r="E174" s="0" t="s"/>
+      <x:c r="F174" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G174" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H174" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I174" s="0" t="s"/>
+      <x:c r="J174" s="0" t="s"/>
+    </x:row>
+    <x:row r="175" spans="1:10">
+      <x:c r="A175" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C175" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D175" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E175" s="0" t="s"/>
+      <x:c r="F175" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G175" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H175" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I175" s="0" t="s"/>
+      <x:c r="J175" s="0" t="s"/>
+    </x:row>
+    <x:row r="176" spans="1:10">
+      <x:c r="A176" s="0" t="s"/>
+      <x:c r="B176" s="0" t="s"/>
+      <x:c r="C176" s="0" t="s"/>
+      <x:c r="D176" s="0" t="s"/>
+      <x:c r="E176" s="0" t="s"/>
+      <x:c r="F176" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G176" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H176" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I176" s="0" t="s"/>
+      <x:c r="J176" s="0" t="s"/>
+    </x:row>
+    <x:row r="177" spans="1:10">
+      <x:c r="A177" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C177" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D177" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E177" s="0" t="s"/>
+      <x:c r="F177" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G177" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H177" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I177" s="0" t="s"/>
+      <x:c r="J177" s="0" t="s"/>
+    </x:row>
+    <x:row r="178" spans="1:10">
+      <x:c r="A178" s="0" t="s"/>
+      <x:c r="B178" s="0" t="s"/>
+      <x:c r="C178" s="0" t="s"/>
+      <x:c r="D178" s="0" t="s"/>
+      <x:c r="E178" s="0" t="s"/>
+      <x:c r="F178" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G178" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H178" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I178" s="0" t="s"/>
+      <x:c r="J178" s="0" t="s"/>
+    </x:row>
+    <x:row r="179" spans="1:10">
+      <x:c r="A179" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="C179" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="D179" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E179" s="0" t="s"/>
+      <x:c r="F179" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G179" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H179" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I179" s="0" t="s"/>
+      <x:c r="J179" s="0" t="s"/>
+    </x:row>
+    <x:row r="180" spans="1:10">
+      <x:c r="A180" s="0" t="s"/>
+      <x:c r="B180" s="0" t="s"/>
+      <x:c r="C180" s="0" t="s"/>
+      <x:c r="D180" s="0" t="s"/>
+      <x:c r="E180" s="0" t="s"/>
+      <x:c r="F180" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G180" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H180" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I180" s="0" t="s"/>
+      <x:c r="J180" s="0" t="s"/>
+    </x:row>
+    <x:row r="181" spans="1:10">
+      <x:c r="A181" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C181" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="D181" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E181" s="0" t="s"/>
+      <x:c r="F181" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G181" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H181" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I181" s="0" t="s"/>
+      <x:c r="J181" s="0" t="s"/>
+    </x:row>
+    <x:row r="182" spans="1:10">
+      <x:c r="A182" s="0" t="s"/>
+      <x:c r="B182" s="0" t="s"/>
+      <x:c r="C182" s="0" t="s"/>
+      <x:c r="D182" s="0" t="s"/>
+      <x:c r="E182" s="0" t="s"/>
+      <x:c r="F182" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G182" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H182" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I182" s="0" t="s"/>
+      <x:c r="J182" s="0" t="s"/>
+    </x:row>
+    <x:row r="183" spans="1:10">
+      <x:c r="A183" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="C183" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D183" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E183" s="0" t="s"/>
+      <x:c r="F183" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G183" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H183" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I183" s="0" t="s"/>
+      <x:c r="J183" s="0" t="s"/>
+    </x:row>
+    <x:row r="184" spans="1:10">
+      <x:c r="A184" s="0" t="s"/>
+      <x:c r="B184" s="0" t="s"/>
+      <x:c r="C184" s="0" t="s"/>
+      <x:c r="D184" s="0" t="s"/>
+      <x:c r="E184" s="0" t="s"/>
+      <x:c r="F184" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G184" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H184" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I184" s="0" t="s"/>
+      <x:c r="J184" s="0" t="s"/>
+    </x:row>
+    <x:row r="185" spans="1:10">
+      <x:c r="A185" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C185" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="D185" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E185" s="0" t="s"/>
+      <x:c r="F185" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G185" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H185" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I185" s="0" t="s"/>
+      <x:c r="J185" s="0" t="s"/>
+    </x:row>
+    <x:row r="186" spans="1:10">
+      <x:c r="A186" s="0" t="s"/>
+      <x:c r="B186" s="0" t="s"/>
+      <x:c r="C186" s="0" t="s"/>
+      <x:c r="D186" s="0" t="s"/>
+      <x:c r="E186" s="0" t="s"/>
+      <x:c r="F186" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G186" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H186" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I186" s="0" t="s"/>
+      <x:c r="J186" s="0" t="s"/>
+    </x:row>
+    <x:row r="187" spans="1:10">
+      <x:c r="A187" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C187" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="D187" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E187" s="0" t="s"/>
+      <x:c r="F187" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G187" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H187" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I187" s="0" t="s"/>
+      <x:c r="J187" s="0" t="s"/>
+    </x:row>
+    <x:row r="188" spans="1:10">
+      <x:c r="A188" s="0" t="s"/>
+      <x:c r="B188" s="0" t="s"/>
+      <x:c r="C188" s="0" t="s"/>
+      <x:c r="D188" s="0" t="s"/>
+      <x:c r="E188" s="0" t="s"/>
+      <x:c r="F188" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G188" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H188" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I188" s="0" t="s"/>
+      <x:c r="J188" s="0" t="s"/>
+    </x:row>
+    <x:row r="189" spans="1:10">
+      <x:c r="A189" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C189" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="D189" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E189" s="0" t="s"/>
+      <x:c r="F189" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G189" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H189" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I189" s="0" t="s"/>
+      <x:c r="J189" s="0" t="s"/>
+    </x:row>
+    <x:row r="190" spans="1:10">
+      <x:c r="A190" s="0" t="s"/>
+      <x:c r="B190" s="0" t="s"/>
+      <x:c r="C190" s="0" t="s"/>
+      <x:c r="D190" s="0" t="s"/>
+      <x:c r="E190" s="0" t="s"/>
+      <x:c r="F190" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G190" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H190" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I190" s="0" t="s"/>
+      <x:c r="J190" s="0" t="s"/>
+    </x:row>
+    <x:row r="191" spans="1:10">
+      <x:c r="A191" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="C191" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D191" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E191" s="0" t="s"/>
+      <x:c r="F191" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G191" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H191" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I191" s="0" t="s"/>
+      <x:c r="J191" s="0" t="s"/>
+    </x:row>
+    <x:row r="192" spans="1:10">
+      <x:c r="A192" s="0" t="s"/>
+      <x:c r="B192" s="0" t="s"/>
+      <x:c r="C192" s="0" t="s"/>
+      <x:c r="D192" s="0" t="s"/>
+      <x:c r="E192" s="0" t="s"/>
+      <x:c r="F192" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G192" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H192" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I192" s="0" t="s"/>
+      <x:c r="J192" s="0" t="s"/>
+    </x:row>
+    <x:row r="193" spans="1:10">
+      <x:c r="A193" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="C193" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D193" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E193" s="0" t="s"/>
+      <x:c r="F193" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G193" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H193" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I193" s="0" t="s"/>
+      <x:c r="J193" s="0" t="s"/>
+    </x:row>
+    <x:row r="194" spans="1:10">
+      <x:c r="A194" s="0" t="s"/>
+      <x:c r="B194" s="0" t="s"/>
+      <x:c r="C194" s="0" t="s"/>
+      <x:c r="D194" s="0" t="s"/>
+      <x:c r="E194" s="0" t="s"/>
+      <x:c r="F194" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G194" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H194" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I194" s="0" t="s"/>
+      <x:c r="J194" s="0" t="s"/>
+    </x:row>
+    <x:row r="195" spans="1:10">
+      <x:c r="A195" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="C195" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="D195" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E195" s="0" t="s"/>
+      <x:c r="F195" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G195" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H195" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I195" s="0" t="s"/>
+      <x:c r="J195" s="0" t="s"/>
+    </x:row>
+    <x:row r="196" spans="1:10">
+      <x:c r="A196" s="0" t="s"/>
+      <x:c r="B196" s="0" t="s"/>
+      <x:c r="C196" s="0" t="s"/>
+      <x:c r="D196" s="0" t="s"/>
+      <x:c r="E196" s="0" t="s"/>
+      <x:c r="F196" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G196" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H196" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I196" s="0" t="s"/>
+      <x:c r="J196" s="0" t="s"/>
+    </x:row>
+    <x:row r="197" spans="1:10">
+      <x:c r="A197" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C197" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="D197" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E197" s="0" t="s"/>
+      <x:c r="F197" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G197" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H197" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I197" s="0" t="s"/>
+      <x:c r="J197" s="0" t="s"/>
+    </x:row>
+    <x:row r="198" spans="1:10">
+      <x:c r="A198" s="0" t="s"/>
+      <x:c r="B198" s="0" t="s"/>
+      <x:c r="C198" s="0" t="s"/>
+      <x:c r="D198" s="0" t="s"/>
+      <x:c r="E198" s="0" t="s"/>
+      <x:c r="F198" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G198" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H198" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I198" s="0" t="s"/>
+      <x:c r="J198" s="0" t="s"/>
+    </x:row>
+    <x:row r="199" spans="1:10">
+      <x:c r="A199" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="C199" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="D199" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E199" s="0" t="s"/>
+      <x:c r="F199" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G199" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H199" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I199" s="0" t="s"/>
+      <x:c r="J199" s="0" t="s"/>
+    </x:row>
+    <x:row r="200" spans="1:10">
+      <x:c r="A200" s="0" t="s"/>
+      <x:c r="B200" s="0" t="s"/>
+      <x:c r="C200" s="0" t="s"/>
+      <x:c r="D200" s="0" t="s"/>
+      <x:c r="E200" s="0" t="s"/>
+      <x:c r="F200" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G200" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H200" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I200" s="0" t="s"/>
+      <x:c r="J200" s="0" t="s"/>
+    </x:row>
+    <x:row r="201" spans="1:10">
+      <x:c r="A201" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="C201" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="D201" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E201" s="0" t="s"/>
+      <x:c r="F201" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G201" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H201" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I201" s="0" t="s"/>
+      <x:c r="J201" s="0" t="s"/>
+    </x:row>
+    <x:row r="202" spans="1:10">
+      <x:c r="A202" s="0" t="s"/>
+      <x:c r="B202" s="0" t="s"/>
+      <x:c r="C202" s="0" t="s"/>
+      <x:c r="D202" s="0" t="s"/>
+      <x:c r="E202" s="0" t="s"/>
+      <x:c r="F202" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G202" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H202" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I202" s="0" t="s"/>
+      <x:c r="J202" s="0" t="s"/>
+    </x:row>
+    <x:row r="203" spans="1:10">
+      <x:c r="A203" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="C203" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="D203" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E203" s="0" t="s"/>
+      <x:c r="F203" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G203" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H203" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I203" s="0" t="s"/>
+      <x:c r="J203" s="0" t="s"/>
+    </x:row>
+    <x:row r="204" spans="1:10">
+      <x:c r="A204" s="0" t="s"/>
+      <x:c r="B204" s="0" t="s"/>
+      <x:c r="C204" s="0" t="s"/>
+      <x:c r="D204" s="0" t="s"/>
+      <x:c r="E204" s="0" t="s"/>
+      <x:c r="F204" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G204" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H204" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I204" s="0" t="s"/>
+      <x:c r="J204" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
